--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_11.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_11.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9785631567222798</v>
+        <v>0.8913063423306493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7161056651626838</v>
+        <v>0.6914364395816079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7272955829945493</v>
+        <v>0.6262440354433476</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9483622320780926</v>
+        <v>-6.882520833023662</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08996584541274746</v>
+        <v>0.4561640292155398</v>
       </c>
       <c r="G2" t="n">
-        <v>1.898402724270347</v>
+        <v>2.06336594932234</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9754478873178805</v>
+        <v>1.336903413603147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09693757817845279</v>
+        <v>0.9636014471148139</v>
       </c>
       <c r="J2" t="n">
-        <v>0.33814919438011</v>
+        <v>1.308027064702912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2999430702862586</v>
+        <v>0.6753991628774348</v>
       </c>
       <c r="L2" t="n">
-        <v>1.012548396065007</v>
+        <v>0.6273360308479405</v>
       </c>
       <c r="M2" t="n">
-        <v>0.312712267756096</v>
+        <v>0.7041523035101357</v>
       </c>
       <c r="N2" t="n">
-        <v>134.8166503521848</v>
+        <v>35.56980564191412</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0435789686178</v>
+        <v>56.29069466467352</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9783633116378383</v>
+        <v>0.8927835602368068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7158703152356833</v>
+        <v>0.691432998397119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.726323056109535</v>
+        <v>0.6268731976653432</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9499501159774114</v>
+        <v>-6.595646105361655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09080455248078159</v>
+        <v>0.449964461673595</v>
       </c>
       <c r="G3" t="n">
-        <v>1.899976510315885</v>
+        <v>2.063388960538863</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9789265595952281</v>
+        <v>1.334652936815991</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09395670534403219</v>
+        <v>0.9285323482095921</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3392651623364419</v>
+        <v>1.308138985036599</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3013379373407563</v>
+        <v>0.6707939040223867</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012665378553461</v>
+        <v>0.6324007779547662</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3141665171888766</v>
+        <v>0.6993509892514281</v>
       </c>
       <c r="N3" t="n">
-        <v>134.7980917143564</v>
+        <v>35.59717334679013</v>
       </c>
       <c r="O3" t="n">
-        <v>214.0250203307894</v>
+        <v>56.31806236954954</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9781536421004567</v>
+        <v>0.8942330497501371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7156249108245458</v>
+        <v>0.6914043938972757</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7253245802823951</v>
+        <v>0.6274584972678536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9515052555728413</v>
+        <v>-6.312616775093923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0916844906761332</v>
+        <v>0.4438812642646183</v>
       </c>
       <c r="G4" t="n">
-        <v>1.901617530743145</v>
+        <v>2.063580238961026</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9824980497339525</v>
+        <v>1.332559354075432</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09103730212082609</v>
+        <v>0.8939333312200859</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3403957747339059</v>
+        <v>1.30813037271628</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3027944693618647</v>
+        <v>0.6662441476400512</v>
       </c>
       <c r="L4" t="n">
-        <v>1.012788111941196</v>
+        <v>0.6373704562861843</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3156850567935605</v>
+        <v>0.6946075403206023</v>
       </c>
       <c r="N4" t="n">
-        <v>134.7788040902915</v>
+        <v>35.62439635028242</v>
       </c>
       <c r="O4" t="n">
-        <v>214.0057327067246</v>
+        <v>56.34528537304183</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9779336434242629</v>
+        <v>0.8956505784782592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7153690895490855</v>
+        <v>0.6913426580239767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7242997252205552</v>
+        <v>0.6279984872224031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9530246279360216</v>
+        <v>-6.034220801310302</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09260777805744422</v>
+        <v>0.4379321994340279</v>
       </c>
       <c r="G5" t="n">
-        <v>1.903328208790097</v>
+        <v>2.063993067030045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9861638968656431</v>
+        <v>1.330627841318425</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08818504333495614</v>
+        <v>0.8599007204739202</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3415404846312882</v>
+        <v>1.308026485603987</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3043152609670507</v>
+        <v>0.6617644591801738</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01291689165409</v>
+        <v>0.6422305547826032</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3172705916458519</v>
+        <v>0.6899371422487545</v>
       </c>
       <c r="N5" t="n">
-        <v>134.7587642891136</v>
+        <v>35.65138235280104</v>
       </c>
       <c r="O5" t="n">
-        <v>213.9856929055466</v>
+        <v>56.37227137556045</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9777030139751587</v>
+        <v>0.8970391929440412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7151024709022786</v>
+        <v>0.6912334479057929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.723247159540745</v>
+        <v>0.6285008774382241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9545054586942566</v>
+        <v>-5.760044283251296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09357568051849845</v>
+        <v>0.4321044815770667</v>
       </c>
       <c r="G6" t="n">
-        <v>1.905111088908961</v>
+        <v>2.064723355593206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9899288632710594</v>
+        <v>1.328830820646691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08540513720863882</v>
+        <v>0.8263839185316136</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3427035223481139</v>
+        <v>1.307864035994777</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3059014228775316</v>
+        <v>0.6573465460296164</v>
       </c>
       <c r="L6" t="n">
-        <v>1.013051894258444</v>
+        <v>0.6469915186652841</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3189242797526698</v>
+        <v>0.6853311493890371</v>
       </c>
       <c r="N6" t="n">
-        <v>134.7379695055578</v>
+        <v>35.67817572895577</v>
       </c>
       <c r="O6" t="n">
-        <v>213.9648981219908</v>
+        <v>56.39906475171518</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9774612756245996</v>
+        <v>0.8983863548373645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7148245205684619</v>
+        <v>0.691080385887511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7221662668499056</v>
+        <v>0.6289500588198913</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9559448390040065</v>
+        <v>-5.49220426556794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0945902046625141</v>
+        <v>0.4264507312990752</v>
       </c>
       <c r="G7" t="n">
-        <v>1.906969744071037</v>
+        <v>2.065746882014242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9937951537524325</v>
+        <v>1.327224124889501</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08270304440098838</v>
+        <v>0.7936417242384287</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3438794940845563</v>
+        <v>1.30760036346021</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3075552058777645</v>
+        <v>0.6530319527397379</v>
       </c>
       <c r="L7" t="n">
-        <v>1.013193399634381</v>
+        <v>0.6516103594423925</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3206484677190253</v>
+        <v>0.6808328749303689</v>
       </c>
       <c r="N7" t="n">
-        <v>134.7164027061583</v>
+        <v>35.70451687473091</v>
       </c>
       <c r="O7" t="n">
-        <v>213.9433313225913</v>
+        <v>56.42540589749032</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9772080484959127</v>
+        <v>0.8996956276631376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7145348701368919</v>
+        <v>0.6908656141992437</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7210563429531573</v>
+        <v>0.6293543855035793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9573400150125121</v>
+        <v>-5.230180120806365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09565294475062421</v>
+        <v>0.4209559933322671</v>
       </c>
       <c r="G8" t="n">
-        <v>1.908906637840663</v>
+        <v>2.067183061282618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9977652871740157</v>
+        <v>1.325777871786157</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08008393461294043</v>
+        <v>0.7616104933137369</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3450746553696247</v>
+        <v>1.307278067573451</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3092781026044751</v>
+        <v>0.6488112154797165</v>
       </c>
       <c r="L8" t="n">
-        <v>1.013341630148734</v>
+        <v>0.6560992948450433</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3224447117262798</v>
+        <v>0.6764324521470578</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6940575936817</v>
+        <v>35.73045395933052</v>
       </c>
       <c r="O8" t="n">
-        <v>213.9209862101147</v>
+        <v>56.45134298208993</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9769429060883413</v>
+        <v>0.9009630095987577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7142330025991519</v>
+        <v>0.6905779557029106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7199162158711653</v>
+        <v>0.6297105631200834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.958687714306681</v>
+        <v>-4.974683370180665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09676569071526546</v>
+        <v>0.415637062470025</v>
       </c>
       <c r="G9" t="n">
-        <v>1.910925227455502</v>
+        <v>2.069106634972144</v>
       </c>
       <c r="H9" t="n">
-        <v>1.001843455637935</v>
+        <v>1.324503845104287</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07755395101862418</v>
+        <v>0.7303772059109787</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3462869568601251</v>
+        <v>1.30689529140791</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3110718417267392</v>
+        <v>0.6446992030939894</v>
       </c>
       <c r="L9" t="n">
-        <v>1.013496835460483</v>
+        <v>0.6604446043385981</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3243148140365306</v>
+        <v>0.6721453828810312</v>
       </c>
       <c r="N9" t="n">
-        <v>134.6709255645722</v>
+        <v>35.75588569101778</v>
       </c>
       <c r="O9" t="n">
-        <v>213.8978541810052</v>
+        <v>56.47677471377719</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9766653490755303</v>
+        <v>0.9021871995316364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7139184640858325</v>
+        <v>0.6901966527295189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7187448427819049</v>
+        <v>0.6300206690294707</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9599845981962731</v>
+        <v>-4.726002665278738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09793053812233374</v>
+        <v>0.4104993992035466</v>
       </c>
       <c r="G10" t="n">
-        <v>1.913028547942386</v>
+        <v>2.071656409710953</v>
       </c>
       <c r="H10" t="n">
-        <v>1.006033389258105</v>
+        <v>1.323394614247382</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07511936121168586</v>
+        <v>0.6999771483419448</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3475209341134872</v>
+        <v>1.306468618746871</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3129385532693819</v>
+        <v>0.6407022703280726</v>
       </c>
       <c r="L10" t="n">
-        <v>1.013659307858226</v>
+        <v>0.6646418269656105</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3262609953541692</v>
+        <v>0.6679782924124779</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6469936925907</v>
+        <v>35.78076162732617</v>
       </c>
       <c r="O10" t="n">
-        <v>213.8739223090237</v>
+        <v>56.50165065008558</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9763750376469492</v>
+        <v>0.9170959726087444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7135908563309252</v>
+        <v>0.6685541173685887</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7175417799726176</v>
+        <v>0.6114194052932331</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9612278705281091</v>
+        <v>-0.5805439565008024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09914891308393163</v>
+        <v>0.3479304679214457</v>
       </c>
       <c r="G11" t="n">
-        <v>1.915219262507946</v>
+        <v>2.216380143324205</v>
       </c>
       <c r="H11" t="n">
-        <v>1.010336675169336</v>
+        <v>1.389930256068662</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07278541430199911</v>
+        <v>0.1932141349163466</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3487738733024618</v>
+        <v>1.280614756702586</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3148792039559482</v>
+        <v>0.5898563112499905</v>
       </c>
       <c r="L11" t="n">
-        <v>1.013829246255444</v>
+        <v>0.715757620372838</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3282842635581634</v>
+        <v>0.6149677155907964</v>
       </c>
       <c r="N11" t="n">
-        <v>134.622264772834</v>
+        <v>36.11150524798948</v>
       </c>
       <c r="O11" t="n">
-        <v>213.849193389267</v>
+        <v>56.83239427074889</v>
       </c>
     </row>
   </sheetData>
